--- a/public/Extraction_Salles.xlsx
+++ b/public/Extraction_Salles.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
   <si>
     <t>ID</t>
   </si>
@@ -819,6 +819,63 @@
   </si>
   <si>
     <t>Salle CFC 2</t>
+  </si>
+  <si>
+    <t>SAL000181</t>
+  </si>
+  <si>
+    <t>BLOCK 6_1</t>
+  </si>
+  <si>
+    <t>SAL000182</t>
+  </si>
+  <si>
+    <t>BLOCK 6_2</t>
+  </si>
+  <si>
+    <t>SAL000183</t>
+  </si>
+  <si>
+    <t>BLOCK 6_3</t>
+  </si>
+  <si>
+    <t>SAL000184</t>
+  </si>
+  <si>
+    <t>BLOCK 6_4</t>
+  </si>
+  <si>
+    <t>SAL000185</t>
+  </si>
+  <si>
+    <t>BLOCK 6_5</t>
+  </si>
+  <si>
+    <t>SAL000186</t>
+  </si>
+  <si>
+    <t>BLOCK 6_6</t>
+  </si>
+  <si>
+    <t>SAL000187</t>
+  </si>
+  <si>
+    <t>BLOCK 6_7</t>
+  </si>
+  <si>
+    <t>SAL000188</t>
+  </si>
+  <si>
+    <t>BLOCK 6_8</t>
+  </si>
+  <si>
+    <t>SAL000189</t>
+  </si>
+  <si>
+    <t>Salle Lng 3</t>
+  </si>
+  <si>
+    <t>salle de langues 3</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1211,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2770,6 +2827,132 @@
       </c>
       <c r="D115" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>181</v>
+      </c>
+      <c r="B116" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" t="s">
+        <v>269</v>
+      </c>
+      <c r="D116" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>182</v>
+      </c>
+      <c r="B117" t="s">
+        <v>270</v>
+      </c>
+      <c r="C117" t="s">
+        <v>271</v>
+      </c>
+      <c r="D117" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>183</v>
+      </c>
+      <c r="B118" t="s">
+        <v>272</v>
+      </c>
+      <c r="C118" t="s">
+        <v>273</v>
+      </c>
+      <c r="D118" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>184</v>
+      </c>
+      <c r="B119" t="s">
+        <v>274</v>
+      </c>
+      <c r="C119" t="s">
+        <v>275</v>
+      </c>
+      <c r="D119" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>185</v>
+      </c>
+      <c r="B120" t="s">
+        <v>276</v>
+      </c>
+      <c r="C120" t="s">
+        <v>277</v>
+      </c>
+      <c r="D120" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>186</v>
+      </c>
+      <c r="B121" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" t="s">
+        <v>279</v>
+      </c>
+      <c r="D121" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>187</v>
+      </c>
+      <c r="B122" t="s">
+        <v>280</v>
+      </c>
+      <c r="C122" t="s">
+        <v>281</v>
+      </c>
+      <c r="D122" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>188</v>
+      </c>
+      <c r="B123" t="s">
+        <v>282</v>
+      </c>
+      <c r="C123" t="s">
+        <v>283</v>
+      </c>
+      <c r="D123" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>189</v>
+      </c>
+      <c r="B124" t="s">
+        <v>284</v>
+      </c>
+      <c r="C124" t="s">
+        <v>285</v>
+      </c>
+      <c r="D124" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
